--- a/data/pca/factorExposure/factorExposure_2016-05-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009785348354677544</v>
+        <v>0.0129599339505045</v>
       </c>
       <c r="C2">
-        <v>-0.05651153010610303</v>
+        <v>0.03932516713545248</v>
       </c>
       <c r="D2">
-        <v>0.04118278920613327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05629898339397815</v>
+      </c>
+      <c r="E2">
+        <v>0.09111530276745039</v>
+      </c>
+      <c r="F2">
+        <v>-0.07822784966323551</v>
+      </c>
+      <c r="G2">
+        <v>-0.03765873110880009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0405782886647674</v>
+        <v>0.02521927770330328</v>
       </c>
       <c r="C3">
-        <v>-0.1185343053396658</v>
+        <v>0.06616596332402758</v>
       </c>
       <c r="D3">
-        <v>0.08103091057630965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07057262037196271</v>
+      </c>
+      <c r="E3">
+        <v>0.07230668826770989</v>
+      </c>
+      <c r="F3">
+        <v>0.02990420188226019</v>
+      </c>
+      <c r="G3">
+        <v>-0.04802476282711596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06182195034505441</v>
+        <v>0.05958642558311215</v>
       </c>
       <c r="C4">
-        <v>-0.0612575336947126</v>
+        <v>0.06292753827146376</v>
       </c>
       <c r="D4">
-        <v>0.02115874324116927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04959237223709456</v>
+      </c>
+      <c r="E4">
+        <v>0.09111416708348712</v>
+      </c>
+      <c r="F4">
+        <v>-0.03349832779768627</v>
+      </c>
+      <c r="G4">
+        <v>-0.0961310653512806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04084663016921579</v>
+        <v>0.03604543737728402</v>
       </c>
       <c r="C6">
-        <v>-0.03497044223821382</v>
+        <v>0.02615269124147095</v>
       </c>
       <c r="D6">
-        <v>0.02278732915229724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05866810723760869</v>
+      </c>
+      <c r="E6">
+        <v>0.0899865279969346</v>
+      </c>
+      <c r="F6">
+        <v>-0.0205732547795969</v>
+      </c>
+      <c r="G6">
+        <v>-0.06916938367397125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02611937117762525</v>
+        <v>0.02063096734870221</v>
       </c>
       <c r="C7">
-        <v>-0.04223408034259968</v>
+        <v>0.03656385206578761</v>
       </c>
       <c r="D7">
-        <v>-0.007654800454094884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03641586343938374</v>
+      </c>
+      <c r="E7">
+        <v>0.0669814392889261</v>
+      </c>
+      <c r="F7">
+        <v>-0.06327706994847765</v>
+      </c>
+      <c r="G7">
+        <v>-0.1033640515040317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006923459342804242</v>
+        <v>0.005036051932478156</v>
       </c>
       <c r="C8">
-        <v>-0.03741995365494327</v>
+        <v>0.03260123295929111</v>
       </c>
       <c r="D8">
-        <v>0.02571768059109462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03198604637741716</v>
+      </c>
+      <c r="E8">
+        <v>0.06094460505783192</v>
+      </c>
+      <c r="F8">
+        <v>-0.01473265375412385</v>
+      </c>
+      <c r="G8">
+        <v>-0.04113897959726356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03488522527135435</v>
+        <v>0.03803510886269141</v>
       </c>
       <c r="C9">
-        <v>-0.05047143942531647</v>
+        <v>0.05145191222748607</v>
       </c>
       <c r="D9">
-        <v>0.006805325544393126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03446271880988735</v>
+      </c>
+      <c r="E9">
+        <v>0.07625015836356486</v>
+      </c>
+      <c r="F9">
+        <v>-0.04710285114718565</v>
+      </c>
+      <c r="G9">
+        <v>-0.0902903415115873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0722025718120624</v>
+        <v>0.09905064784018078</v>
       </c>
       <c r="C10">
-        <v>0.1861633807197848</v>
+        <v>-0.197007736552012</v>
       </c>
       <c r="D10">
-        <v>-0.01133733796528287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01493567002221032</v>
+      </c>
+      <c r="E10">
+        <v>0.03653701149453997</v>
+      </c>
+      <c r="F10">
+        <v>-0.01618352309145778</v>
+      </c>
+      <c r="G10">
+        <v>-0.03483053508008997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04188606714659006</v>
+        <v>0.03720705115876226</v>
       </c>
       <c r="C11">
-        <v>-0.05121782279720411</v>
+        <v>0.04750677791016217</v>
       </c>
       <c r="D11">
-        <v>0.01353920139903186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03133912069264566</v>
+      </c>
+      <c r="E11">
+        <v>0.03026653261447816</v>
+      </c>
+      <c r="F11">
+        <v>-0.03530484627702873</v>
+      </c>
+      <c r="G11">
+        <v>-0.07164343037598975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04441404176758588</v>
+        <v>0.0393894348402818</v>
       </c>
       <c r="C12">
-        <v>-0.04681785415868964</v>
+        <v>0.04531133734447084</v>
       </c>
       <c r="D12">
-        <v>0.001464489521063072</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02597552969780193</v>
+      </c>
+      <c r="E12">
+        <v>0.0372761451236641</v>
+      </c>
+      <c r="F12">
+        <v>-0.03777543997348951</v>
+      </c>
+      <c r="G12">
+        <v>-0.06941796224242061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01348348584390587</v>
+        <v>0.01109924799830912</v>
       </c>
       <c r="C13">
-        <v>-0.05538921016647494</v>
+        <v>0.04231690669128146</v>
       </c>
       <c r="D13">
-        <v>0.003553016500201987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04039390184811852</v>
+      </c>
+      <c r="E13">
+        <v>0.1047985070909149</v>
+      </c>
+      <c r="F13">
+        <v>-0.05175220167950157</v>
+      </c>
+      <c r="G13">
+        <v>-0.1005277726786919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009404713846235348</v>
+        <v>0.005577494503049645</v>
       </c>
       <c r="C14">
-        <v>-0.04107320854566722</v>
+        <v>0.03237560727364198</v>
       </c>
       <c r="D14">
-        <v>-0.009607357158491706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02329462864589951</v>
+      </c>
+      <c r="E14">
+        <v>0.05196866231084084</v>
+      </c>
+      <c r="F14">
+        <v>-0.07079089630292347</v>
+      </c>
+      <c r="G14">
+        <v>-0.08858000749034223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001184827040314934</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005431290820115833</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007156908159717953</v>
+      </c>
+      <c r="E15">
+        <v>0.005046040706189957</v>
+      </c>
+      <c r="F15">
+        <v>-0.005839675076448742</v>
+      </c>
+      <c r="G15">
+        <v>-0.007700098236921915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03952068102307941</v>
+        <v>0.03526774243817671</v>
       </c>
       <c r="C16">
-        <v>-0.04886593285111535</v>
+        <v>0.0444926539110385</v>
       </c>
       <c r="D16">
-        <v>0.003220518255826176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02453238670692975</v>
+      </c>
+      <c r="E16">
+        <v>0.04323124727532472</v>
+      </c>
+      <c r="F16">
+        <v>-0.04660724515943879</v>
+      </c>
+      <c r="G16">
+        <v>-0.06132938477380342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02552472926046524</v>
+        <v>0.01867630397592838</v>
       </c>
       <c r="C19">
-        <v>-0.05989194986419642</v>
+        <v>0.04335732302250145</v>
       </c>
       <c r="D19">
-        <v>0.08584435416367119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09017306083667485</v>
+      </c>
+      <c r="E19">
+        <v>0.1148016245039477</v>
+      </c>
+      <c r="F19">
+        <v>-0.05703330912073114</v>
+      </c>
+      <c r="G19">
+        <v>-0.05163306430840128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01798982656113935</v>
+        <v>0.01442323906152762</v>
       </c>
       <c r="C20">
-        <v>-0.04829203370479108</v>
+        <v>0.0387244929736472</v>
       </c>
       <c r="D20">
-        <v>0.006569050142987688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03113321668325804</v>
+      </c>
+      <c r="E20">
+        <v>0.08001040023975871</v>
+      </c>
+      <c r="F20">
+        <v>-0.04499802374037673</v>
+      </c>
+      <c r="G20">
+        <v>-0.07170569023734565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01164057180208209</v>
+        <v>0.01022105810377188</v>
       </c>
       <c r="C21">
-        <v>-0.0517888031201286</v>
+        <v>0.0409088157555379</v>
       </c>
       <c r="D21">
-        <v>0.03126586602914853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05471697271442812</v>
+      </c>
+      <c r="E21">
+        <v>0.124951977515569</v>
+      </c>
+      <c r="F21">
+        <v>-0.07664264475246284</v>
+      </c>
+      <c r="G21">
+        <v>-0.1117342060239003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001924797012336662</v>
+        <v>0.002964528652191376</v>
       </c>
       <c r="C22">
-        <v>-0.00147041450894987</v>
+        <v>0.02705585384612832</v>
       </c>
       <c r="D22">
-        <v>0.00469148236066018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04245126787092121</v>
+      </c>
+      <c r="E22">
+        <v>0.04631348340931344</v>
+      </c>
+      <c r="F22">
+        <v>0.01728792384058215</v>
+      </c>
+      <c r="G22">
+        <v>-0.05334041122185272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001930364496152249</v>
+        <v>0.003052016803902014</v>
       </c>
       <c r="C23">
-        <v>-0.001488421552546353</v>
+        <v>0.02719536566230401</v>
       </c>
       <c r="D23">
-        <v>0.004684799315925834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04199431193818427</v>
+      </c>
+      <c r="E23">
+        <v>0.04655676412384108</v>
+      </c>
+      <c r="F23">
+        <v>0.01756327601735498</v>
+      </c>
+      <c r="G23">
+        <v>-0.05330910976849076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03664615536826332</v>
+        <v>0.03575991337465734</v>
       </c>
       <c r="C24">
-        <v>-0.0499295733766114</v>
+        <v>0.05194126089435308</v>
       </c>
       <c r="D24">
-        <v>0.005255640242019922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02380005690447547</v>
+      </c>
+      <c r="E24">
+        <v>0.0441303015411838</v>
+      </c>
+      <c r="F24">
+        <v>-0.04745949361513167</v>
+      </c>
+      <c r="G24">
+        <v>-0.07549435478561858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04860212087043051</v>
+        <v>0.04383573800036562</v>
       </c>
       <c r="C25">
-        <v>-0.0604625540969393</v>
+        <v>0.05570399555793196</v>
       </c>
       <c r="D25">
-        <v>-0.003966927146165323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02222461858883723</v>
+      </c>
+      <c r="E25">
+        <v>0.0365524636336849</v>
+      </c>
+      <c r="F25">
+        <v>-0.03670289474329252</v>
+      </c>
+      <c r="G25">
+        <v>-0.08278299709915383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01727433656948829</v>
+        <v>0.01546580705588296</v>
       </c>
       <c r="C26">
-        <v>-0.01711444204316058</v>
+        <v>0.01674071489939036</v>
       </c>
       <c r="D26">
-        <v>-0.002328753765889383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02315722364255257</v>
+      </c>
+      <c r="E26">
+        <v>0.05403691620189244</v>
+      </c>
+      <c r="F26">
+        <v>-0.05438070369172139</v>
+      </c>
+      <c r="G26">
+        <v>-0.05617402677405792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0875081311250351</v>
+        <v>0.1352899512553876</v>
       </c>
       <c r="C28">
-        <v>0.2484452109768298</v>
+        <v>-0.2550842680438096</v>
       </c>
       <c r="D28">
-        <v>-0.01167888995492757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03087807784525943</v>
+      </c>
+      <c r="E28">
+        <v>0.05445846297150989</v>
+      </c>
+      <c r="F28">
+        <v>-0.02420487118334235</v>
+      </c>
+      <c r="G28">
+        <v>-0.05626488977848599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008130802039083221</v>
+        <v>0.006053551993906882</v>
       </c>
       <c r="C29">
-        <v>-0.03341822331633384</v>
+        <v>0.02902668694199596</v>
       </c>
       <c r="D29">
-        <v>-0.01756149445460976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01519860486731733</v>
+      </c>
+      <c r="E29">
+        <v>0.05050518527983024</v>
+      </c>
+      <c r="F29">
+        <v>-0.05967264637282615</v>
+      </c>
+      <c r="G29">
+        <v>-0.09207903855645644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04557830935442673</v>
+        <v>0.04161007605791725</v>
       </c>
       <c r="C30">
-        <v>-0.05551952867384894</v>
+        <v>0.05715990903781295</v>
       </c>
       <c r="D30">
-        <v>0.07098449917109689</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09886171492457063</v>
+      </c>
+      <c r="E30">
+        <v>0.08451967063875956</v>
+      </c>
+      <c r="F30">
+        <v>-0.0638316276647522</v>
+      </c>
+      <c r="G30">
+        <v>-0.07200060692542246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05950337698734198</v>
+        <v>0.05801016185796914</v>
       </c>
       <c r="C31">
-        <v>-0.04448248655269608</v>
+        <v>0.06066270738816776</v>
       </c>
       <c r="D31">
-        <v>-0.04630209251617076</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0189960418139154</v>
+      </c>
+      <c r="E31">
+        <v>0.06844231355324094</v>
+      </c>
+      <c r="F31">
+        <v>-0.01980160021127376</v>
+      </c>
+      <c r="G31">
+        <v>-0.08888858692771663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0004131088754868409</v>
+        <v>0.005477096230051179</v>
       </c>
       <c r="C32">
-        <v>-0.0448740370623982</v>
+        <v>0.03418004433320078</v>
       </c>
       <c r="D32">
-        <v>0.04914069056707143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05324627434796071</v>
+      </c>
+      <c r="E32">
+        <v>0.05726600067167929</v>
+      </c>
+      <c r="F32">
+        <v>-0.06283563530323234</v>
+      </c>
+      <c r="G32">
+        <v>-0.07573183964455917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03252328938719314</v>
+        <v>0.02715959523263008</v>
       </c>
       <c r="C33">
-        <v>-0.05931123931299551</v>
+        <v>0.05249008764622888</v>
       </c>
       <c r="D33">
-        <v>0.03496630737616743</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06822887960715189</v>
+      </c>
+      <c r="E33">
+        <v>0.09402652386643369</v>
+      </c>
+      <c r="F33">
+        <v>-0.05955535822034093</v>
+      </c>
+      <c r="G33">
+        <v>-0.1043057970777998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04556720267550873</v>
+        <v>0.04105736283312081</v>
       </c>
       <c r="C34">
-        <v>-0.06440588253931372</v>
+        <v>0.06269057036624162</v>
       </c>
       <c r="D34">
-        <v>0.01909256497127096</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03804912409163028</v>
+      </c>
+      <c r="E34">
+        <v>0.02028415031040851</v>
+      </c>
+      <c r="F34">
+        <v>-0.04955165597963412</v>
+      </c>
+      <c r="G34">
+        <v>-0.07477353195460319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01687471460234867</v>
+        <v>0.01453411896292079</v>
       </c>
       <c r="C36">
-        <v>-0.01691510034466834</v>
+        <v>0.01306306937325504</v>
       </c>
       <c r="D36">
-        <v>-0.00653482411675922</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02171123642785164</v>
+      </c>
+      <c r="E36">
+        <v>0.06168408362379566</v>
+      </c>
+      <c r="F36">
+        <v>-0.0430758942768186</v>
+      </c>
+      <c r="G36">
+        <v>-0.07248722629457946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02949616910200863</v>
+        <v>0.0232153989192063</v>
       </c>
       <c r="C38">
-        <v>-0.03361594289771604</v>
+        <v>0.02492742625989588</v>
       </c>
       <c r="D38">
-        <v>-0.01923408351547389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01954704751592192</v>
+      </c>
+      <c r="E38">
+        <v>0.05344622224608803</v>
+      </c>
+      <c r="F38">
+        <v>-0.03737088050128073</v>
+      </c>
+      <c r="G38">
+        <v>-0.04951047510030379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04707632423579561</v>
+        <v>0.04096523909275119</v>
       </c>
       <c r="C39">
-        <v>-0.06297659578855171</v>
+        <v>0.06268137210392224</v>
       </c>
       <c r="D39">
-        <v>0.01610993801649363</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05005216713685735</v>
+      </c>
+      <c r="E39">
+        <v>0.05313553884259178</v>
+      </c>
+      <c r="F39">
+        <v>-0.06884582431417688</v>
+      </c>
+      <c r="G39">
+        <v>-0.07035348588519073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01127130715545664</v>
+        <v>0.01313651549117518</v>
       </c>
       <c r="C40">
-        <v>-0.05128160282040221</v>
+        <v>0.03735284178703039</v>
       </c>
       <c r="D40">
-        <v>0.01661573220809694</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02781893225850001</v>
+      </c>
+      <c r="E40">
+        <v>0.08961234980984997</v>
+      </c>
+      <c r="F40">
+        <v>-0.02402516113053039</v>
+      </c>
+      <c r="G40">
+        <v>-0.1077566338325837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02232379650988883</v>
+        <v>0.01911277832375857</v>
       </c>
       <c r="C41">
-        <v>-0.0148674314251077</v>
+        <v>0.01044253735829924</v>
       </c>
       <c r="D41">
-        <v>-0.003193148868968126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01358360402297379</v>
+      </c>
+      <c r="E41">
+        <v>0.06236389874044714</v>
+      </c>
+      <c r="F41">
+        <v>-0.04122995976095185</v>
+      </c>
+      <c r="G41">
+        <v>-0.05857116729129801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04205672921294667</v>
+        <v>0.03016231026033281</v>
       </c>
       <c r="C43">
-        <v>-0.03261923960769419</v>
+        <v>0.02402860679317677</v>
       </c>
       <c r="D43">
-        <v>0.02028574276362308</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04197769935421595</v>
+      </c>
+      <c r="E43">
+        <v>0.07979413856909429</v>
+      </c>
+      <c r="F43">
+        <v>-0.03286537292994223</v>
+      </c>
+      <c r="G43">
+        <v>-0.08726206291523023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01415306807628907</v>
+        <v>0.01545395527572969</v>
       </c>
       <c r="C44">
-        <v>-0.06843267282970648</v>
+        <v>0.0478822806181915</v>
       </c>
       <c r="D44">
-        <v>0.00452089226780771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03050901928009981</v>
+      </c>
+      <c r="E44">
+        <v>0.08718841339482829</v>
+      </c>
+      <c r="F44">
+        <v>-0.05676125151296194</v>
+      </c>
+      <c r="G44">
+        <v>-0.05616718081150964</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009859978470430943</v>
+        <v>0.01028981012069849</v>
       </c>
       <c r="C46">
-        <v>-0.02877084213232972</v>
+        <v>0.02902732380297292</v>
       </c>
       <c r="D46">
-        <v>-0.01719086048990625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01057818196254583</v>
+      </c>
+      <c r="E46">
+        <v>0.06038044893206842</v>
+      </c>
+      <c r="F46">
+        <v>-0.07267141097598452</v>
+      </c>
+      <c r="G46">
+        <v>-0.09333467207998873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08853471628289357</v>
+        <v>0.0912780785920127</v>
       </c>
       <c r="C47">
-        <v>-0.0692586090492502</v>
+        <v>0.07968145804303031</v>
       </c>
       <c r="D47">
-        <v>-0.04842082615146045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02676078970105454</v>
+      </c>
+      <c r="E47">
+        <v>0.06682311226640157</v>
+      </c>
+      <c r="F47">
+        <v>-0.01959946136233801</v>
+      </c>
+      <c r="G47">
+        <v>-0.08016382098859054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01893531139410085</v>
+        <v>0.01720491391836605</v>
       </c>
       <c r="C48">
-        <v>-0.01403246405972756</v>
+        <v>0.01550166707756431</v>
       </c>
       <c r="D48">
-        <v>-0.02241579161999768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00917616826096445</v>
+      </c>
+      <c r="E48">
+        <v>0.07376557509204794</v>
+      </c>
+      <c r="F48">
+        <v>-0.05551191807344464</v>
+      </c>
+      <c r="G48">
+        <v>-0.08157631452720231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08281431956083149</v>
+        <v>0.07121147786204964</v>
       </c>
       <c r="C50">
-        <v>-0.08266437401733502</v>
+        <v>0.07525582211016663</v>
       </c>
       <c r="D50">
-        <v>-0.04838121358369734</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01135113321416255</v>
+      </c>
+      <c r="E50">
+        <v>0.0771279597770793</v>
+      </c>
+      <c r="F50">
+        <v>0.01016634590478462</v>
+      </c>
+      <c r="G50">
+        <v>-0.09463903222316944</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01776764503899512</v>
+        <v>0.01093370079611785</v>
       </c>
       <c r="C51">
-        <v>-0.0492587988509517</v>
+        <v>0.03175471063194894</v>
       </c>
       <c r="D51">
-        <v>0.0383037779444931</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05457063083657434</v>
+      </c>
+      <c r="E51">
+        <v>0.05252882402012283</v>
+      </c>
+      <c r="F51">
+        <v>-0.06202995933383627</v>
+      </c>
+      <c r="G51">
+        <v>-0.06930998344023916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08356546409538856</v>
+        <v>0.09638485468589642</v>
       </c>
       <c r="C53">
-        <v>-0.0760023988070323</v>
+        <v>0.08495873477208428</v>
       </c>
       <c r="D53">
-        <v>-0.0654768383886092</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06292210434284219</v>
+      </c>
+      <c r="E53">
+        <v>0.06345484696349725</v>
+      </c>
+      <c r="F53">
+        <v>-0.01639608826973111</v>
+      </c>
+      <c r="G53">
+        <v>-0.07243663393160933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03536745521551184</v>
+        <v>0.02877316803323105</v>
       </c>
       <c r="C54">
-        <v>-0.03954248851285768</v>
+        <v>0.03329868535550688</v>
       </c>
       <c r="D54">
-        <v>-0.007632365139930769</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02225737972331353</v>
+      </c>
+      <c r="E54">
+        <v>0.05951268489693002</v>
+      </c>
+      <c r="F54">
+        <v>-0.06381606089130495</v>
+      </c>
+      <c r="G54">
+        <v>-0.08975712410248762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07835794973293779</v>
+        <v>0.08862339219522436</v>
       </c>
       <c r="C55">
-        <v>-0.05523321955537917</v>
+        <v>0.06798204871609391</v>
       </c>
       <c r="D55">
-        <v>-0.07035047794822741</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06292615919897704</v>
+      </c>
+      <c r="E55">
+        <v>0.04170838359030766</v>
+      </c>
+      <c r="F55">
+        <v>-0.002577422597710839</v>
+      </c>
+      <c r="G55">
+        <v>-0.05260628568026423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1515789809329224</v>
+        <v>0.1533835552855162</v>
       </c>
       <c r="C56">
-        <v>-0.0849225252071969</v>
+        <v>0.1019181864846919</v>
       </c>
       <c r="D56">
-        <v>-0.06159464659409686</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05757975152917028</v>
+      </c>
+      <c r="E56">
+        <v>0.03883037352308424</v>
+      </c>
+      <c r="F56">
+        <v>0.01664506789326045</v>
+      </c>
+      <c r="G56">
+        <v>-0.02225546840278622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04694554689864409</v>
+        <v>0.0294163952611108</v>
       </c>
       <c r="C58">
-        <v>-0.02747602925055322</v>
+        <v>0.02428954589498222</v>
       </c>
       <c r="D58">
-        <v>0.5384056761365609</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3544421798816837</v>
+      </c>
+      <c r="E58">
+        <v>0.6427696068669516</v>
+      </c>
+      <c r="F58">
+        <v>0.3876569590015429</v>
+      </c>
+      <c r="G58">
+        <v>0.4807840337628184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1265138565805065</v>
+        <v>0.1420242577891812</v>
       </c>
       <c r="C59">
-        <v>0.201348913286808</v>
+        <v>-0.1905802071800103</v>
       </c>
       <c r="D59">
-        <v>0.02277376631423586</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02736073871393028</v>
+      </c>
+      <c r="E59">
+        <v>0.03154424105177359</v>
+      </c>
+      <c r="F59">
+        <v>-0.03610116481529738</v>
+      </c>
+      <c r="G59">
+        <v>0.007184898930168862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.307692938845174</v>
+        <v>0.2771331324642267</v>
       </c>
       <c r="C60">
-        <v>-0.1048107527917208</v>
+        <v>0.1059721606061432</v>
       </c>
       <c r="D60">
-        <v>0.2031003460843924</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2668975766818162</v>
+      </c>
+      <c r="E60">
+        <v>-0.2363166732356439</v>
+      </c>
+      <c r="F60">
+        <v>0.08271636661464719</v>
+      </c>
+      <c r="G60">
+        <v>-0.03173950306695665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04529793766835857</v>
+        <v>0.04235985834349375</v>
       </c>
       <c r="C61">
-        <v>-0.06231505047267119</v>
+        <v>0.05835557158776403</v>
       </c>
       <c r="D61">
-        <v>0.01109165941933995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04038779297966099</v>
+      </c>
+      <c r="E61">
+        <v>0.0545613005528188</v>
+      </c>
+      <c r="F61">
+        <v>-0.04963903269799722</v>
+      </c>
+      <c r="G61">
+        <v>-0.08344022184934255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01799603589477431</v>
+        <v>0.01628316478045872</v>
       </c>
       <c r="C63">
-        <v>-0.03427737710850934</v>
+        <v>0.03094738355630428</v>
       </c>
       <c r="D63">
-        <v>-0.02581544137249025</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01406828765232575</v>
+      </c>
+      <c r="E63">
+        <v>0.06436290799797199</v>
+      </c>
+      <c r="F63">
+        <v>-0.02873438864067989</v>
+      </c>
+      <c r="G63">
+        <v>-0.07942867457162392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04950243513691552</v>
+        <v>0.05525234950809561</v>
       </c>
       <c r="C64">
-        <v>-0.05045878676954854</v>
+        <v>0.05820993117820925</v>
       </c>
       <c r="D64">
-        <v>0.006929421181672141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.007678824086521243</v>
+      </c>
+      <c r="E64">
+        <v>0.04387760729599324</v>
+      </c>
+      <c r="F64">
+        <v>-0.04680888259380442</v>
+      </c>
+      <c r="G64">
+        <v>-0.05845206533080979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08108898817291861</v>
+        <v>0.0656602168275259</v>
       </c>
       <c r="C65">
-        <v>-0.02794990073022042</v>
+        <v>0.0268987558529267</v>
       </c>
       <c r="D65">
-        <v>0.05511820572345341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08526877604628409</v>
+      </c>
+      <c r="E65">
+        <v>0.05778680184274757</v>
+      </c>
+      <c r="F65">
+        <v>-0.001840528043644695</v>
+      </c>
+      <c r="G65">
+        <v>-0.02101033276145894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06266358686769657</v>
+        <v>0.05317165044443865</v>
       </c>
       <c r="C66">
-        <v>-0.08639208455938639</v>
+        <v>0.0802425252722888</v>
       </c>
       <c r="D66">
-        <v>0.03717541031862761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07448851240927835</v>
+      </c>
+      <c r="E66">
+        <v>0.06287744537210412</v>
+      </c>
+      <c r="F66">
+        <v>-0.05796516613583454</v>
+      </c>
+      <c r="G66">
+        <v>-0.0838999009116851</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05111494811950597</v>
+        <v>0.04458595615656166</v>
       </c>
       <c r="C67">
-        <v>-0.03308590972167814</v>
+        <v>0.02941168710696425</v>
       </c>
       <c r="D67">
-        <v>-0.02513378065120641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004137737771131226</v>
+      </c>
+      <c r="E67">
+        <v>0.02984233618861772</v>
+      </c>
+      <c r="F67">
+        <v>-0.02666420331394554</v>
+      </c>
+      <c r="G67">
+        <v>-0.03834404682504721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1231692132303893</v>
+        <v>0.1482631171931394</v>
       </c>
       <c r="C68">
-        <v>0.282882371349497</v>
+        <v>-0.246171724740888</v>
       </c>
       <c r="D68">
-        <v>-0.009774970844417013</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01660906332657457</v>
+      </c>
+      <c r="E68">
+        <v>0.03852733758147572</v>
+      </c>
+      <c r="F68">
+        <v>-0.00429189412373336</v>
+      </c>
+      <c r="G68">
+        <v>-0.03518906043557603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09158905199820523</v>
+        <v>0.08690672558166329</v>
       </c>
       <c r="C69">
-        <v>-0.07229447246082212</v>
+        <v>0.09021090383010147</v>
       </c>
       <c r="D69">
-        <v>-0.05247635403862934</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01788928206952345</v>
+      </c>
+      <c r="E69">
+        <v>0.05976462343335836</v>
+      </c>
+      <c r="F69">
+        <v>-0.04935308541026244</v>
+      </c>
+      <c r="G69">
+        <v>-0.08296625617148601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1144101720021567</v>
+        <v>0.1426235263517615</v>
       </c>
       <c r="C71">
-        <v>0.2581197812192007</v>
+        <v>-0.2437142992167774</v>
       </c>
       <c r="D71">
-        <v>0.00797622371090112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003258727479490346</v>
+      </c>
+      <c r="E71">
+        <v>0.05664723939947231</v>
+      </c>
+      <c r="F71">
+        <v>-0.008085895648743756</v>
+      </c>
+      <c r="G71">
+        <v>-0.0639413091458912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0960155471468933</v>
+        <v>0.1022187412966228</v>
       </c>
       <c r="C72">
-        <v>-0.05055424618427256</v>
+        <v>0.05573088932969922</v>
       </c>
       <c r="D72">
-        <v>0.003387018048550686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02887000626244911</v>
+      </c>
+      <c r="E72">
+        <v>0.0270229137271221</v>
+      </c>
+      <c r="F72">
+        <v>-0.02408212802845101</v>
+      </c>
+      <c r="G72">
+        <v>-0.08161935486236857</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.399932544325633</v>
+        <v>0.3379647652013693</v>
       </c>
       <c r="C73">
-        <v>-0.03926331438377578</v>
+        <v>0.06816343287694165</v>
       </c>
       <c r="D73">
-        <v>0.4756087102111753</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5282267227407867</v>
+      </c>
+      <c r="E73">
+        <v>-0.4376634349638528</v>
+      </c>
+      <c r="F73">
+        <v>0.2337555204933308</v>
+      </c>
+      <c r="G73">
+        <v>0.00818547673953491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1066015590207715</v>
+        <v>0.1112505855763003</v>
       </c>
       <c r="C74">
-        <v>-0.09301056126526895</v>
+        <v>0.09324170009221806</v>
       </c>
       <c r="D74">
-        <v>-0.05169489026422654</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0512419996402033</v>
+      </c>
+      <c r="E74">
+        <v>0.05868608940806996</v>
+      </c>
+      <c r="F74">
+        <v>0.02176978909858209</v>
+      </c>
+      <c r="G74">
+        <v>-0.0543262817377435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2591678526930121</v>
+        <v>0.2614636046149183</v>
       </c>
       <c r="C75">
-        <v>-0.0944535028572526</v>
+        <v>0.1262050856165925</v>
       </c>
       <c r="D75">
-        <v>-0.1388625630907712</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1501646091820729</v>
+      </c>
+      <c r="E75">
+        <v>0.02530802985590648</v>
+      </c>
+      <c r="F75">
+        <v>0.06365895201079727</v>
+      </c>
+      <c r="G75">
+        <v>0.05905231083094963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1160633444623832</v>
+        <v>0.1298538112024988</v>
       </c>
       <c r="C76">
-        <v>-0.08021630168069371</v>
+        <v>0.09183007562086286</v>
       </c>
       <c r="D76">
-        <v>-0.08052643890999105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08352956140653836</v>
+      </c>
+      <c r="E76">
+        <v>0.06750332071424933</v>
+      </c>
+      <c r="F76">
+        <v>-0.003693811585261695</v>
+      </c>
+      <c r="G76">
+        <v>-0.03651881321863263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07806976090838247</v>
+        <v>0.06402831101785014</v>
       </c>
       <c r="C77">
-        <v>-0.05037647288205678</v>
+        <v>0.06186139990532442</v>
       </c>
       <c r="D77">
-        <v>0.04835916836239119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0479998792481828</v>
+      </c>
+      <c r="E77">
+        <v>0.1025407250938004</v>
+      </c>
+      <c r="F77">
+        <v>-0.1787687770761941</v>
+      </c>
+      <c r="G77">
+        <v>0.07730079579705788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04792094738249255</v>
+        <v>0.04553841985564362</v>
       </c>
       <c r="C78">
-        <v>-0.04636104948898426</v>
+        <v>0.05577825909222647</v>
       </c>
       <c r="D78">
-        <v>0.02802160431067557</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05860356088512455</v>
+      </c>
+      <c r="E78">
+        <v>0.06382474182151347</v>
+      </c>
+      <c r="F78">
+        <v>-0.05102449747252791</v>
+      </c>
+      <c r="G78">
+        <v>-0.06440830049867162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03122434073353366</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0450592570039746</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08022505180066385</v>
+      </c>
+      <c r="E79">
+        <v>0.06022055452671003</v>
+      </c>
+      <c r="F79">
+        <v>0.0241177639792935</v>
+      </c>
+      <c r="G79">
+        <v>-0.0333224615336228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03968265556741665</v>
+        <v>0.03059454242772814</v>
       </c>
       <c r="C80">
-        <v>-0.04899941876160179</v>
+        <v>0.0496214629784168</v>
       </c>
       <c r="D80">
-        <v>0.03171751349821988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03918440293432131</v>
+      </c>
+      <c r="E80">
+        <v>0.0187748196327435</v>
+      </c>
+      <c r="F80">
+        <v>-0.05398075315520721</v>
+      </c>
+      <c r="G80">
+        <v>-0.004434541983885527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1425848416540237</v>
+        <v>0.1420620177311239</v>
       </c>
       <c r="C81">
-        <v>-0.07265696994450886</v>
+        <v>0.0919547698840147</v>
       </c>
       <c r="D81">
-        <v>-0.1154327349167376</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1275262434601271</v>
+      </c>
+      <c r="E81">
+        <v>0.06257504342547898</v>
+      </c>
+      <c r="F81">
+        <v>0.03248748619413246</v>
+      </c>
+      <c r="G81">
+        <v>0.01051348064627185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1851905096331521</v>
+        <v>0.2207507600316241</v>
       </c>
       <c r="C82">
-        <v>-0.08552000513592338</v>
+        <v>0.1505319531839801</v>
       </c>
       <c r="D82">
-        <v>-0.1925305111816925</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2497684784931051</v>
+      </c>
+      <c r="E82">
+        <v>-0.03916162414706168</v>
+      </c>
+      <c r="F82">
+        <v>-0.04845689157992313</v>
+      </c>
+      <c r="G82">
+        <v>-0.07322626939460106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03925803394457116</v>
+        <v>0.02644609637035625</v>
       </c>
       <c r="C83">
-        <v>-0.03078981761747721</v>
+        <v>0.04379458885938207</v>
       </c>
       <c r="D83">
-        <v>0.03986460222322223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02981460787809798</v>
+      </c>
+      <c r="E83">
+        <v>0.02824507592376503</v>
+      </c>
+      <c r="F83">
+        <v>-0.0388680963637746</v>
+      </c>
+      <c r="G83">
+        <v>-0.01199784519534978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.00043859318849314</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001208718287823205</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.002039326439077822</v>
+      </c>
+      <c r="E84">
+        <v>0.002617232156250733</v>
+      </c>
+      <c r="F84">
+        <v>0.0005687757450100231</v>
+      </c>
+      <c r="G84">
+        <v>-0.002698943034260994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2204590061820817</v>
+        <v>0.2032691474800173</v>
       </c>
       <c r="C85">
-        <v>-0.09606832746111432</v>
+        <v>0.112534470871669</v>
       </c>
       <c r="D85">
-        <v>-0.1698045640384175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1283237364933915</v>
+      </c>
+      <c r="E85">
+        <v>-0.01106436701663747</v>
+      </c>
+      <c r="F85">
+        <v>0.09970613800449574</v>
+      </c>
+      <c r="G85">
+        <v>0.02608462695980393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007982226789860667</v>
+        <v>0.01104220937172816</v>
       </c>
       <c r="C86">
-        <v>-0.02839667464501968</v>
+        <v>0.02016897029570217</v>
       </c>
       <c r="D86">
-        <v>0.04523466980421526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0583504969434304</v>
+      </c>
+      <c r="E86">
+        <v>0.08324660532867839</v>
+      </c>
+      <c r="F86">
+        <v>-0.07895892022081048</v>
+      </c>
+      <c r="G86">
+        <v>-0.08192799355843175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02416214445355175</v>
+        <v>0.02501431578895749</v>
       </c>
       <c r="C87">
-        <v>-0.00451652696233484</v>
+        <v>0.01255753742581612</v>
       </c>
       <c r="D87">
-        <v>0.07652754796997378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07804382982540081</v>
+      </c>
+      <c r="E87">
+        <v>0.1329447894232233</v>
+      </c>
+      <c r="F87">
+        <v>-0.07162146289631298</v>
+      </c>
+      <c r="G87">
+        <v>-0.02157885317717044</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1089223612035532</v>
+        <v>0.0932416844409545</v>
       </c>
       <c r="C88">
-        <v>-0.07554407023059011</v>
+        <v>0.06322211327265846</v>
       </c>
       <c r="D88">
-        <v>-0.02597094473056172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.007605462811987607</v>
+      </c>
+      <c r="E88">
+        <v>0.05426877862163466</v>
+      </c>
+      <c r="F88">
+        <v>-0.05543353297412751</v>
+      </c>
+      <c r="G88">
+        <v>-0.04319864062573977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1769443268746643</v>
+        <v>0.2152701085683852</v>
       </c>
       <c r="C89">
-        <v>0.3801549887586271</v>
+        <v>-0.3830527817846736</v>
       </c>
       <c r="D89">
-        <v>-0.02568862753017108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01930444908802107</v>
+      </c>
+      <c r="E89">
+        <v>0.07542236253860857</v>
+      </c>
+      <c r="F89">
+        <v>-0.0938132163436278</v>
+      </c>
+      <c r="G89">
+        <v>-0.004264261258036824</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1714791230338134</v>
+        <v>0.196605637809068</v>
       </c>
       <c r="C90">
-        <v>0.3385175181830507</v>
+        <v>-0.3132876425184437</v>
       </c>
       <c r="D90">
-        <v>-0.04319576419929982</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02496010857798389</v>
+      </c>
+      <c r="E90">
+        <v>0.05614130629935583</v>
+      </c>
+      <c r="F90">
+        <v>-0.02798847297340423</v>
+      </c>
+      <c r="G90">
+        <v>-0.01961726691219905</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1919767677549797</v>
+        <v>0.1881100638476348</v>
       </c>
       <c r="C91">
-        <v>-0.126043318058528</v>
+        <v>0.1421194913598323</v>
       </c>
       <c r="D91">
-        <v>-0.1340552956005239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1311585280284672</v>
+      </c>
+      <c r="E91">
+        <v>0.04225266548376742</v>
+      </c>
+      <c r="F91">
+        <v>0.01716898917165334</v>
+      </c>
+      <c r="G91">
+        <v>0.008375238850575128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1568616088013363</v>
+        <v>0.1781421023250661</v>
       </c>
       <c r="C92">
-        <v>0.2872912931473901</v>
+        <v>-0.2924674554685614</v>
       </c>
       <c r="D92">
-        <v>-0.02673238872980307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02057129855314976</v>
+      </c>
+      <c r="E92">
+        <v>0.0695031817450322</v>
+      </c>
+      <c r="F92">
+        <v>-0.05749360158359577</v>
+      </c>
+      <c r="G92">
+        <v>-0.02978370126560093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1912503529778539</v>
+        <v>0.217579884010782</v>
       </c>
       <c r="C93">
-        <v>0.3398743959700035</v>
+        <v>-0.321073925413171</v>
       </c>
       <c r="D93">
-        <v>-0.04536191463180138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02148932784005264</v>
+      </c>
+      <c r="E93">
+        <v>0.04094343595735353</v>
+      </c>
+      <c r="F93">
+        <v>-0.002011521585702821</v>
+      </c>
+      <c r="G93">
+        <v>-0.04032197379862941</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3427852385920457</v>
+        <v>0.3431900594982119</v>
       </c>
       <c r="C94">
-        <v>-0.1326945004068426</v>
+        <v>0.1787602095747052</v>
       </c>
       <c r="D94">
-        <v>-0.3901759031891897</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4081233157364301</v>
+      </c>
+      <c r="E94">
+        <v>-0.01973674058834683</v>
+      </c>
+      <c r="F94">
+        <v>0.09058235488844397</v>
+      </c>
+      <c r="G94">
+        <v>0.4013252769174575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.120406308715818</v>
+        <v>0.08854731594596783</v>
       </c>
       <c r="C95">
-        <v>-0.0626309348614066</v>
+        <v>0.06010009345883773</v>
       </c>
       <c r="D95">
-        <v>0.2321185738703252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2058431248971228</v>
+      </c>
+      <c r="E95">
+        <v>-0.08993430397447752</v>
+      </c>
+      <c r="F95">
+        <v>-0.7568046385873055</v>
+      </c>
+      <c r="G95">
+        <v>0.5110446763256624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1931393519160539</v>
+        <v>0.186534623086885</v>
       </c>
       <c r="C98">
-        <v>-0.0169235935954667</v>
+        <v>0.04455235994826021</v>
       </c>
       <c r="D98">
-        <v>0.1644043532809206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2034952628816816</v>
+      </c>
+      <c r="E98">
+        <v>-0.1242385649576678</v>
+      </c>
+      <c r="F98">
+        <v>0.08621940726682989</v>
+      </c>
+      <c r="G98">
+        <v>-0.06818474196467704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007905802516762275</v>
+        <v>0.006044618536185351</v>
       </c>
       <c r="C101">
-        <v>-0.03345282935248237</v>
+        <v>0.02859118366012476</v>
       </c>
       <c r="D101">
-        <v>-0.01733838926589704</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01506793970073611</v>
+      </c>
+      <c r="E101">
+        <v>0.05120768831308448</v>
+      </c>
+      <c r="F101">
+        <v>-0.06036365390802704</v>
+      </c>
+      <c r="G101">
+        <v>-0.09200252009028517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1251427525851981</v>
+        <v>0.1271540439280789</v>
       </c>
       <c r="C102">
-        <v>-0.06752134437827585</v>
+        <v>0.09969726729411511</v>
       </c>
       <c r="D102">
-        <v>-0.05187228887039188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05960081360311278</v>
+      </c>
+      <c r="E102">
+        <v>-0.01526407769817371</v>
+      </c>
+      <c r="F102">
+        <v>-0.02370442686629566</v>
+      </c>
+      <c r="G102">
+        <v>0.009071704484939488</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
